--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T10:53:52+10:00</t>
+    <t>2024-05-15T12:58:39+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T12:58:39+10:00</t>
+    <t>2024-05-15T15:51:17+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:51:17+10:00</t>
+    <t>2024-05-16T11:47:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:47:37+10:00</t>
+    <t>2024-05-20T09:59:48+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T09:59:48+10:00</t>
+    <t>2024-05-20T12:15:26+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T17:01:27+10:00</t>
+    <t>2024-05-21T11:55:01+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="497">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T11:55:01+10:00</t>
+    <t>2024-05-21T16:48:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/au-patient</t>
+    <t>http://hl7.org.au/fhir/core/StructureDefinition/au-core-patient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -266,14 +266,14 @@
 </t>
   </si>
   <si>
-    <t>A patient in an Australian healthcare context</t>
+    <t>A patient in the context of electronic exchange of health information</t>
   </si>
   <si>
     <t>Demographics and other administrative information about an individual receiving care or other health-related services.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-pat-0:If present, birth time's date shall be the birth date {birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').exists() implies birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').value.toString().substring(0,10) = birthDate.toString()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-pat-0:If present, birth time's date shall be the birth date {birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').exists() implies birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').value.toString().substring(0,10) = birthDate.toString()}au-core-pat-01:At least one patient identifier shall be valid {identifier.where(system.count() + value.count() &gt;1).exists()}au-core-pat-02:At least one patient name shall have a family name {name.family.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -562,7 +562,7 @@
 </t>
   </si>
   <si>
-    <t>The date a person first arrived in Australia, from another country, with the intention of living in Australia for one year or more</t>
+    <t>Year of Arrival</t>
   </si>
   <si>
     <t>The date a person first arrived in Australia, from another country, with the intention of living in Australia for one year or more. This date is captured once for a person and is not subsequently updated with subsequent arrivals.</t>
@@ -733,7 +733,7 @@
   </si>
   <si>
     <t>ele-1
-au-core-pat-01</t>
+inv-au-core-pat-01</t>
   </si>
   <si>
     <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
@@ -819,6 +819,9 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>statusCode</t>
   </si>
   <si>
@@ -838,10 +841,18 @@
     <t>A name associated with the individual.</t>
   </si>
   <si>
-    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
+    <t>A patient may have multiple names with different uses or applicable periods. At least one name SHOULD be the name the patient is considered to have for administrative and record keeping purposes - family name is used to enable matching against patient records.</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-au-core-pat-02
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+au-core-pat-04:At least text, family name, or given name shall be present {text.exists() or family.exists() or given.exists()}</t>
   </si>
   <si>
     <t>name</t>
@@ -967,13 +978,13 @@
 </t>
   </si>
   <si>
-    <t>Birth date accuracy indicator</t>
+    <t>Date accuracy indicator</t>
   </si>
   <si>
     <t>General date accuracy indicator coding.</t>
   </si>
   <si>
-    <t>In some circumstances, systems may only have date or datetime data that has unknown or estimated parts.  This coding establishes the accuracy of the day, month and year parts.</t>
+    <t>In some circumstances, systems may capture date or dateTime data that has unknown or estimated parts. This coding indicates the accuracy of the day, month and year parts. This concept is equivalent to Australian Institute of Health and Welfare data element 294418 [Date—accuracy indicator](https://meteor.aihw.gov.au/content/index.phtml/itemId/294418).</t>
   </si>
   <si>
     <t>Patient.birthDate.extension:birthTime</t>
@@ -986,10 +997,10 @@
 </t>
   </si>
   <si>
-    <t>Birth time</t>
-  </si>
-  <si>
-    <t>The time of day that the patient was born. This includes the date to ensure that the timezone information can be communicated effectively.</t>
+    <t>Time of day of birth</t>
+  </si>
+  <si>
+    <t>The time of day that the Patient was born. This includes the date to ensure that the timezone information can be communicated effectively.</t>
   </si>
   <si>
     <t>Patient.birthDate.value</t>
@@ -1073,6 +1084,9 @@
   </si>
   <si>
     <t>Deceased date accuracy indicator</t>
+  </si>
+  <si>
+    <t>In some circumstances, systems may only have date or datetime data that has unknown or estimated parts.  This coding establishes the accuracy of the day, month and year parts.</t>
   </si>
   <si>
     <t>Patient.deceased[x]:deceasedDateTime.value</t>
@@ -3005,7 +3019,7 @@
         <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>80</v>
@@ -3477,7 +3491,7 @@
         <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>80</v>
@@ -3596,7 +3610,7 @@
         <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
@@ -5026,7 +5040,7 @@
         <v>253</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>80</v>
@@ -5083,13 +5097,13 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5100,10 +5114,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5126,19 +5140,19 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5187,7 +5201,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5196,22 +5210,22 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5219,10 +5233,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5245,19 +5259,19 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5306,7 +5320,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5321,16 +5335,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5338,10 +5352,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5367,16 +5381,16 @@
         <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5401,13 +5415,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5425,7 +5439,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5440,16 +5454,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5457,10 +5471,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5483,19 +5497,19 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5544,7 +5558,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5559,27 +5573,27 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5605,10 +5619,10 @@
         <v>185</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5691,10 +5705,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5804,13 +5818,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
@@ -5823,7 +5837,7 @@
         <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
@@ -5832,16 +5846,16 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5923,13 +5937,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>80</v>
@@ -5942,7 +5956,7 @@
         <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -5951,13 +5965,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6040,10 +6054,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6066,13 +6080,13 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6123,7 +6137,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6155,10 +6169,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6181,19 +6195,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6240,7 +6254,7 @@
         <v>209</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6255,7 +6269,7 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>189</v>
@@ -6264,7 +6278,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6272,13 +6286,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
@@ -6303,16 +6317,16 @@
         <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6361,7 +6375,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6376,7 +6390,7 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>189</v>
@@ -6385,7 +6399,7 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6393,13 +6407,13 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>80</v>
@@ -6421,19 +6435,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6482,7 +6496,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6497,7 +6511,7 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>189</v>
@@ -6506,7 +6520,7 @@
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6514,10 +6528,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6543,10 +6557,10 @@
         <v>185</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6629,10 +6643,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6742,13 +6756,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
@@ -6770,16 +6784,16 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6861,10 +6875,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6887,13 +6901,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6944,7 +6958,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6976,10 +6990,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6993,7 +7007,7 @@
         <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7002,19 +7016,19 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7063,7 +7077,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7075,10 +7089,10 @@
         <v>145</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -7087,7 +7101,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7095,10 +7109,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7124,14 +7138,14 @@
         <v>203</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7159,28 +7173,28 @@
         <v>213</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7195,16 +7209,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7212,10 +7226,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7238,19 +7252,19 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7299,7 +7313,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7314,7 +7328,7 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>189</v>
@@ -7323,7 +7337,7 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7331,10 +7345,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7357,19 +7371,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7418,7 +7432,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7433,7 +7447,7 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>189</v>
@@ -7442,7 +7456,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7450,10 +7464,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7476,19 +7490,19 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7537,7 +7551,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7549,10 +7563,10 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>189</v>
@@ -7569,10 +7583,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7684,10 +7698,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7713,10 +7727,10 @@
         <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>219</v>
@@ -7801,14 +7815,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7830,10 +7844,10 @@
         <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>219</v>
@@ -7888,7 +7902,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7920,10 +7934,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7949,14 +7963,14 @@
         <v>203</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7985,25 +7999,25 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8018,7 +8032,7 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>189</v>
@@ -8027,7 +8041,7 @@
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8035,10 +8049,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8061,17 +8075,17 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8120,7 +8134,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8135,7 +8149,7 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>189</v>
@@ -8144,7 +8158,7 @@
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8152,10 +8166,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8178,19 +8192,19 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8239,7 +8253,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8254,7 +8268,7 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>189</v>
@@ -8263,7 +8277,7 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8271,10 +8285,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8297,19 +8311,19 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8358,7 +8372,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8373,7 +8387,7 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8382,7 +8396,7 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8390,10 +8404,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8419,14 +8433,14 @@
         <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8451,13 +8465,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8475,7 +8489,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8490,7 +8504,7 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>189</v>
@@ -8499,7 +8513,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8507,10 +8521,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8533,17 +8547,17 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8592,7 +8606,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8601,13 +8615,13 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>189</v>
@@ -8616,7 +8630,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8624,10 +8638,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8650,13 +8664,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8707,7 +8721,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8722,7 +8736,7 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>189</v>
@@ -8739,10 +8753,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8756,7 +8770,7 @@
         <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -8765,19 +8779,19 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8826,7 +8840,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8841,10 +8855,10 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8858,10 +8872,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8973,10 +8987,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9002,10 +9016,10 @@
         <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>219</v>
@@ -9090,14 +9104,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9119,10 +9133,10 @@
         <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>219</v>
@@ -9177,7 +9191,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9209,10 +9223,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9226,7 +9240,7 @@
         <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>80</v>
@@ -9238,16 +9252,16 @@
         <v>203</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9276,7 +9290,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9294,7 +9308,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>88</v>
@@ -9309,16 +9323,16 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9326,10 +9340,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9343,7 +9357,7 @@
         <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -9355,16 +9369,16 @@
         <v>248</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9413,7 +9427,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9428,16 +9442,16 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9445,14 +9459,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9471,16 +9485,16 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9530,7 +9544,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9545,7 +9559,7 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>189</v>
@@ -9554,7 +9568,7 @@
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9562,10 +9576,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9588,19 +9602,19 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9649,7 +9663,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9664,10 +9678,10 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9681,10 +9695,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9707,19 +9721,19 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9768,7 +9782,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9783,7 +9797,7 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>189</v>
@@ -9800,10 +9814,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9915,10 +9929,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9944,10 +9958,10 @@
         <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>219</v>
@@ -10032,14 +10046,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10061,10 +10075,10 @@
         <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>219</v>
@@ -10119,7 +10133,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10151,10 +10165,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10177,16 +10191,16 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10236,7 +10250,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>88</v>
@@ -10251,7 +10265,7 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>189</v>
@@ -10260,7 +10274,7 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10268,10 +10282,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10297,10 +10311,10 @@
         <v>108</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10327,13 +10341,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10351,7 +10365,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>88</v>
@@ -10366,7 +10380,7 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>189</v>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T16:48:43+10:00</t>
+    <t>2024-05-23T13:27:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-pat-0:If present, birth time's date shall be the birth date {birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').exists() implies birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').value.toString().substring(0,10) = birthDate.toString()}au-core-pat-01:At least one patient identifier shall be valid {identifier.where(system.count() + value.count() &gt;1).exists()}au-core-pat-02:At least one patient name shall have a family name {name.family.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-pat-0:If present, birth time's date shall be the birth date {birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').exists() implies birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').value.toString().substring(0,10) = birthDate.toString()}inv-pat-1:Individual gender identity shall be a member of the Gender Identity Response value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/gender-identity-response-1')}inv-pat-2:Individual pronouns shall be a member of the Australian Pronouns value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/australian-pronouns-1')}au-core-pat-01:At least one patient identifier shall be valid {identifier.where(system.count() + value.count() &gt;1).exists()}au-core-pat-02:At least one patient name shall have a family name {name.family.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -486,10 +486,29 @@
     <t>Indigenous status</t>
   </si>
   <si>
-    <t>National Health Data Dictionary (NHDD) based indigenous status for a patient.</t>
+    <t>National Health Data Dictionary (NHDD) based indigenous status for a person.</t>
   </si>
   <si>
     <t>This concept is equivalent to Australian Institute of Health and Welfare data element 602543 [Person—Indigenous status, code N](https://meteor.aihw.gov.au/content/index.phtml/itemId/602543).</t>
+  </si>
+  <si>
+    <t>Patient.extension:veteranStatus</t>
+  </si>
+  <si>
+    <t>veteranStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/veteran-status}
+</t>
+  </si>
+  <si>
+    <t>Veteran / Australian Defence Force (ADF) status</t>
+  </si>
+  <si>
+    <t>Veteran / Australian Defence Force (ADF) status for a person.</t>
+  </si>
+  <si>
+    <t>This concept is equivalent to Australian Institute of Health and Welfare data element 737931 [Person—ADF veteran status, code N](https://meteor.aihw.gov.au/content/737931).</t>
   </si>
   <si>
     <t>Patient.extension:closingTheGapRegistration</t>
@@ -562,7 +581,7 @@
 </t>
   </si>
   <si>
-    <t>Year of Arrival</t>
+    <t>The date a person first arrived in Australia, from another country, with the intention of living in Australia for one year or more</t>
   </si>
   <si>
     <t>The date a person first arrived in Australia, from another country, with the intention of living in Australia for one year or more. This date is captured once for a person and is not subsequently updated with subsequent arrivals.</t>
@@ -577,116 +596,60 @@
     <t>genderIdentity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-genderIdentity}
+    <t xml:space="preserve">Extension {individual-genderIdentity}
 </t>
   </si>
   <si>
-    <t>The patient's gender identity shall be a member of the Gender Identity Response value set if any of the codes within that value set can apply</t>
-  </si>
-  <si>
-    <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
-  </si>
-  <si>
-    <t>Gender identity [Gender Identity Response](https://healthterminologies.gov.au/fhir/ValueSet/gender-identity-response-1) ([Extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)). See [Australian Bureau of Statics (ABS) Standard for Sex, Gender, Variations of Sex Characteristics and Sexual Orientation Variables, 2020](https://www.abs.gov.au/statistics/standards/standard-sex-gender-variations-sex-characteristics-and-sexual-orientation-variables/latest-release#gender) for further materials.</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderIdentity.id</t>
-  </si>
-  <si>
-    <t>Patient.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>Gender identity shall be a member of the Gender Identity Response value set if any codes within that value set can apply</t>
+  </si>
+  <si>
+    <t>An individual's personal sense of being a man, woman, boy, girl, nonbinary, or something else.</t>
+  </si>
+  <si>
+    <t>Individual Gender identity [Gender Identity Response](https://healthterminologies.gov.au/fhir/ValueSet/gender-identity-response-1) ([Extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)). See [Australian Bureau of Statics (ABS) Standard for Sex, Gender, Variations of Sex Characteristics and Sexual Orientation Variables, 2020](https://www.abs.gov.au/statistics/standards/standard-sex-gender-variations-sex-characteristics-and-sexual-orientation-variables/latest-release#gender) for further materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-pat-1
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderIdentity.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderIdentity.url</t>
-  </si>
-  <si>
-    <t>Patient.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/patient-genderIdentity</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderIdentity.value[x]</t>
-  </si>
-  <si>
-    <t>Patient.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>Patient.extension:individualPronouns</t>
+  </si>
+  <si>
+    <t>individualPronouns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {individual-pronouns}
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/gender-identity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
+    <t>Pronouns shall be a member of the Australian Pronouns value set if any codes within that value set can apply</t>
+  </si>
+  <si>
+    <t>The pronouns to use when referring to an individual in verbal or written communication.</t>
+  </si>
+  <si>
+    <t>Individual Pronouns [Australian Pronouns](https://healthterminologies.gov.au/fhir/ValueSet/australian-pronouns-1) ([Extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-pat-2
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Patient.extension:genderIdentity.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/gender-identity-response-1</t>
+    <t>Patient.extension:recordedSexOrGender</t>
+  </si>
+  <si>
+    <t>recordedSexOrGender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {individual-recordedSexOrGender}
+</t>
+  </si>
+  <si>
+    <t>A recorded sex or gender property for the individual</t>
+  </si>
+  <si>
+    <t>A sex or gender property for the individual from a document or other record</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -733,7 +696,7 @@
   </si>
   <si>
     <t>ele-1
-inv-au-core-pat-01</t>
+au-core-pat-01</t>
   </si>
   <si>
     <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
@@ -819,10 +782,10 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>statusCode</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>FiveWs.status</t>
@@ -864,6 +827,205 @@
     <t>PID-5, PID-9</t>
   </si>
   <si>
+    <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>Patient.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>Patient.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>Patient.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>Patient.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>Patient.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
     <t>Patient.telecom</t>
   </si>
   <si>
@@ -907,9 +1069,6 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -944,6 +1103,10 @@
     <t>Age of the individual drives many clinical processes. May include accuracy indicator and specific birth time.</t>
   </si>
   <si>
+    <t xml:space="preserve">inv-pat-0
+</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/birthTime</t>
   </si>
   <si>
@@ -1003,6 +1166,10 @@
     <t>The time of day that the Patient was born. This includes the date to ensure that the timezone information can be communicated effectively.</t>
   </si>
   <si>
+    <t>ele-1
+inv-pat-0</t>
+  </si>
+  <si>
     <t>Patient.birthDate.value</t>
   </si>
   <si>
@@ -1034,6 +1201,13 @@
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
   </si>
   <si>
@@ -1133,6 +1307,10 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -1140,6 +1318,9 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -1242,12 +1423,6 @@
     <t>Patient.contact.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Patient.contact.modifierExtension</t>
   </si>
   <si>
@@ -1371,10 +1546,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1894,7 +2065,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO72"/>
+  <dimension ref="A1:AO79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3252,7 +3423,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3391,7 +3562,9 @@
       <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3455,7 +3628,7 @@
         <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
@@ -3464,7 +3637,7 @@
         <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -3472,13 +3645,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>80</v>
@@ -3491,7 +3664,7 @@
         <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>80</v>
@@ -3500,17 +3673,15 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3574,7 +3745,7 @@
         <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
@@ -3583,7 +3754,7 @@
         <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -3832,9 +4003,11 @@
         <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3843,10 +4016,10 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
@@ -3863,7 +4036,9 @@
       <c r="M17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3912,22 +4087,22 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
@@ -3947,9 +4122,11 @@
         <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3958,10 +4135,10 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -3970,15 +4147,17 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4015,19 +4194,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4036,7 +4215,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>139</v>
@@ -4059,21 +4238,23 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4085,24 +4266,22 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>80</v>
@@ -4144,22 +4323,22 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4176,33 +4355,33 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>204</v>
@@ -4210,8 +4389,12 @@
       <c r="M20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4235,39 +4418,43 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>131</v>
@@ -4287,14 +4474,12 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4303,10 +4488,10 @@
         <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
@@ -4315,16 +4500,18 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4348,44 +4535,44 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -4394,7 +4581,7 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4402,45 +4589,45 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4489,7 +4676,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4498,13 +4685,13 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -4513,7 +4700,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4521,21 +4708,23 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>89</v>
@@ -4547,17 +4736,17 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4594,17 +4783,19 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4613,13 +4804,13 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -4628,7 +4819,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4636,20 +4827,20 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>88</v>
@@ -4664,17 +4855,17 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4723,7 +4914,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4735,10 +4926,10 @@
         <v>145</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4747,7 +4938,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4755,14 +4946,12 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4774,31 +4963,35 @@
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="P25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="P25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4842,31 +5035,31 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4874,23 +5067,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>89</v>
@@ -4899,20 +5090,22 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4961,7 +5154,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4970,22 +5163,22 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4993,10 +5186,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5013,34 +5206,28 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q27" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>80</v>
@@ -5082,7 +5269,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5094,16 +5281,16 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5114,46 +5301,44 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5189,19 +5374,19 @@
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5210,22 +5395,22 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5233,10 +5418,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5244,34 +5429,34 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5296,13 +5481,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5320,13 +5505,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5338,13 +5523,13 @@
         <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5352,10 +5537,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5363,13 +5548,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5378,19 +5563,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5415,13 +5600,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5439,7 +5624,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5454,16 +5639,16 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5471,24 +5656,24 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5497,20 +5682,18 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5558,7 +5741,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5573,38 +5756,38 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5613,18 +5796,20 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5673,22 +5858,22 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -5697,7 +5882,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5705,10 +5890,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5728,16 +5913,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>135</v>
+        <v>302</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5776,17 +5961,19 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5798,10 +5985,10 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5810,7 +5997,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5818,14 +6005,12 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5834,29 +6019,27 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5905,7 +6088,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>193</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5914,13 +6097,13 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5929,7 +6112,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5937,14 +6120,12 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5956,25 +6137,27 @@
         <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6022,22 +6205,22 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>193</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6046,7 +6229,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6054,10 +6237,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6065,31 +6248,35 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6137,31 +6324,31 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6169,10 +6356,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6180,7 +6367,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -6189,25 +6376,25 @@
         <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6232,29 +6419,31 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6269,16 +6458,16 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>189</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6286,47 +6475,45 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6375,7 +6562,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6384,37 +6571,35 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6429,26 +6614,22 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6496,7 +6677,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6508,19 +6689,19 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6528,10 +6709,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6542,7 +6723,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6554,13 +6735,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>299</v>
+        <v>134</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6599,31 +6780,29 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6643,12 +6822,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6657,10 +6838,10 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>80</v>
@@ -6669,15 +6850,17 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6714,17 +6897,19 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6733,7 +6918,7 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>139</v>
@@ -6756,13 +6941,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
@@ -6775,7 +6960,7 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
@@ -6784,17 +6969,15 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6843,7 +7026,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6852,7 +7035,7 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>145</v>
+        <v>365</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>139</v>
@@ -6875,10 +7058,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6901,13 +7084,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6958,7 +7141,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6990,10 +7173,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7004,31 +7187,31 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7065,43 +7248,41 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7109,12 +7290,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7129,23 +7312,25 @@
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7170,13 +7355,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7194,7 +7379,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7209,16 +7394,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>361</v>
+        <v>242</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7226,12 +7411,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7246,25 +7433,25 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7313,7 +7500,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7328,16 +7515,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7345,10 +7532,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7359,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7371,20 +7558,16 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7432,31 +7615,31 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>259</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7464,10 +7647,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7490,20 +7673,16 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>134</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7539,19 +7718,17 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>264</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7563,13 +7740,13 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>385</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7583,12 +7760,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7609,15 +7788,17 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>356</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7666,22 +7847,22 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7698,21 +7879,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7724,17 +7905,15 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>133</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7783,22 +7962,22 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>193</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7815,14 +7994,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7832,28 +8011,28 @@
         <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>401</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>219</v>
+        <v>404</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>220</v>
+        <v>405</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7902,7 +8081,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7911,13 +8090,13 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>406</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>131</v>
+        <v>407</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7926,7 +8105,7 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -7934,10 +8113,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7945,7 +8124,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -7960,17 +8139,17 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>203</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7995,11 +8174,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8017,13 +8198,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -8032,16 +8213,16 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>189</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8049,10 +8230,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8060,7 +8241,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -8075,17 +8256,19 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8134,7 +8317,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8149,16 +8332,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>265</v>
+        <v>426</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8166,10 +8349,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8192,19 +8375,19 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8253,7 +8436,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8268,16 +8451,16 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>274</v>
+        <v>434</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8285,10 +8468,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8299,7 +8482,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8311,19 +8494,19 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>349</v>
+        <v>440</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8372,31 +8555,31 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>442</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8404,10 +8587,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8430,18 +8613,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>258</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8465,13 +8646,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8489,7 +8670,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>259</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8501,19 +8682,19 @@
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8521,21 +8702,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8547,18 +8728,18 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>261</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8606,31 +8787,31 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>422</v>
+        <v>264</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>427</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8638,42 +8819,46 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>431</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8721,25 +8906,25 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>434</v>
+        <v>131</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8753,10 +8938,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8764,13 +8949,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -8779,19 +8964,17 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8816,13 +8999,11 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8840,7 +9021,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8855,16 +9036,16 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>441</v>
+        <v>242</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -8872,10 +9053,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8883,7 +9064,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -8898,16 +9079,18 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>186</v>
+        <v>459</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>187</v>
+        <v>460</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8955,7 +9138,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>188</v>
+        <v>458</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8967,19 +9150,19 @@
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -8987,14 +9170,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9013,18 +9196,20 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>389</v>
+        <v>464</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>390</v>
+        <v>465</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9072,7 +9257,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>193</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9084,19 +9269,19 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9104,45 +9289,45 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>133</v>
+        <v>469</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>219</v>
+        <v>404</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>220</v>
+        <v>472</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9191,22 +9376,22 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>131</v>
+        <v>407</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9215,7 +9400,7 @@
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9223,10 +9408,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9234,13 +9419,13 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>80</v>
@@ -9249,19 +9434,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>330</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9286,11 +9469,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>450</v>
+        <v>335</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9308,10 +9493,10 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>88</v>
@@ -9323,16 +9508,16 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>451</v>
+        <v>336</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>452</v>
+        <v>242</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9340,10 +9525,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9357,7 +9542,7 @@
         <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -9366,19 +9551,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>248</v>
+        <v>478</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9427,7 +9610,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9436,22 +9619,22 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>460</v>
+        <v>242</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9459,24 +9642,24 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -9485,17 +9668,15 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>313</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9544,13 +9725,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9559,16 +9740,16 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9576,10 +9757,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9590,31 +9771,31 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9663,13 +9844,13 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
@@ -9678,10 +9859,10 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9695,10 +9876,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9709,32 +9890,28 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>380</v>
+        <v>256</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>477</v>
+        <v>257</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9782,25 +9959,25 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>476</v>
+        <v>259</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>481</v>
+        <v>242</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9814,21 +9991,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -9840,15 +10017,17 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9897,22 +10076,22 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -9929,14 +10108,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>216</v>
+        <v>447</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9949,24 +10128,26 @@
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10014,7 +10195,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>193</v>
+        <v>450</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10029,7 +10210,7 @@
         <v>139</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -10046,45 +10227,45 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>133</v>
+        <v>410</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>393</v>
+        <v>500</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>394</v>
+        <v>501</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>219</v>
+        <v>502</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>220</v>
+        <v>503</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10109,13 +10290,11 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10133,31 +10312,31 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>395</v>
+        <v>499</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>131</v>
+        <v>505</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>507</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10165,10 +10344,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10176,33 +10355,35 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>486</v>
+        <v>235</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10250,10 +10431,10 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>88</v>
@@ -10265,16 +10446,16 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>189</v>
+        <v>514</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10282,41 +10463,43 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>108</v>
+        <v>518</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10341,13 +10524,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10365,13 +10548,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -10380,23 +10563,844 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO72">
+  <autoFilter ref="A1:AO79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10406,7 +11410,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:27:21+10:00</t>
+    <t>2024-05-23T13:42:03+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:42:03+10:00</t>
+    <t>2024-05-23T14:45:45+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:45:45+10:00</t>
+    <t>2024-05-23T15:19:20+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T15:19:20+10:00</t>
+    <t>2024-05-27T13:31:05+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:31:05+10:00</t>
+    <t>2024-05-30T15:43:42+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T15:43:42+10:00</t>
+    <t>2024-10-24T17:10:08+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-pat-0:If present, birth time's date shall be the birth date {birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').exists() implies birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').value.toString().substring(0,10) = birthDate.toString()}inv-pat-1:Individual gender identity shall be a member of the Gender Identity Response value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/gender-identity-response-1')}inv-pat-2:Individual pronouns shall be a member of the Australian Pronouns value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/australian-pronouns-1')}au-core-pat-01:At least one patient identifier shall be valid {identifier.where(system.count() + value.count() &gt;1).exists()}au-core-pat-02:At least one patient name shall have a family name {name.family.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-pat-0:If present, birth time's date shall be the birth date {birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').exists() implies birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').value.toString().substring(0,10) = birthDate.toString()}inv-pat-1:Individual gender identity shall be a member of the Gender Identity Response value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-genderIdentity').all(extension('value').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/gender-identity-response-1'))}inv-pat-2:Individual pronouns shall be a member of the Australian Pronouns value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-pronouns').all(extension('value').value.memberOf('https://healthterminologies.gov.au/fhir/ValueSet/australian-pronouns-1'))}inv-pat-3:Recorded sex or gender type shall be a member of the AU Recorded Sex or Gender Type value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').extension('type').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').all(extension('type').value.memberOf('http://terminology.hl7.org.au/ValueSet/rsg-type'))}inv-pat-4:Recorded sex or gender source document type shall be a member of the AU Recorded Sex or Gender (RSG) Source Document Type value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').extension('sourceDocument').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').all(extension('sourceDocument').value.memberOf('http://terminology.hl7.org.au/ValueSet/rsg-source-document-type'))}inv-pat-5:Recorded sex or gender jurisdiction shall be a member of the Jurisdiction ValueSet - AU Extended value set if any codes within that value set can apply {extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').extension('jurisdiction').empty() or extension('http://hl7.org/fhir/StructureDefinition/individual-recordedSexOrGender').all(extension('jurisdiction').value.memberOf('http://terminology.hl7.org.au/ValueSet/jurisdiction-extended'))}au-core-pat-01:At least one patient identifier shall be valid, or if not available, the Data Absent Reason extension shall be present {(identifier.where(system.count() + value.count() &gt;1)).exists() xor identifier.extension('http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}au-core-pat-02:At least one patient name shall have a family name, or if not available, the Data Absent Reason extension shall be present {name.family.exists() xor name.extension('http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -469,29 +469,29 @@
     <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
   </si>
   <si>
+    <t>Patient.extension:indigenousStatus</t>
+  </si>
+  <si>
+    <t>indigenousStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/indigenous-status}
+</t>
+  </si>
+  <si>
+    <t>Indigenous status</t>
+  </si>
+  <si>
+    <t>National Health Data Dictionary (NHDD) based indigenous status for a person.</t>
+  </si>
+  <si>
+    <t>This concept is equivalent to Australian Institute of Health and Welfare data element 602543 [Person—Indigenous status, code N](https://meteor.aihw.gov.au/content/index.phtml/itemId/602543).</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Patient.extension:indigenousStatus</t>
-  </si>
-  <si>
-    <t>indigenousStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/indigenous-status}
-</t>
-  </si>
-  <si>
-    <t>Indigenous status</t>
-  </si>
-  <si>
-    <t>National Health Data Dictionary (NHDD) based indigenous status for a person.</t>
-  </si>
-  <si>
-    <t>This concept is equivalent to Australian Institute of Health and Welfare data element 602543 [Person—Indigenous status, code N](https://meteor.aihw.gov.au/content/index.phtml/itemId/602543).</t>
-  </si>
-  <si>
     <t>Patient.extension:veteranStatus</t>
   </si>
   <si>
@@ -646,10 +646,17 @@
 </t>
   </si>
   <si>
-    <t>A recorded sex or gender property for the individual</t>
+    <t>Recorded sex or gender type shall be a member of the AU Recorded Sex or Gender Type value set if any codes within that value set can apply. Recorded sex or gender source document type shall be a member of the AU Recorded Sex or Gender (RSG) Source Document Type value set if any codes within that value set can apply. Recorded sex or gender jurisdiction shall be a member of the Jurisdiction - ValueSet AU Extended value set if any codes within that value set can apply</t>
   </si>
   <si>
     <t>A sex or gender property for the individual from a document or other record</t>
+  </si>
+  <si>
+    <t>Person Recorded Sex Or Gender type [AU Recorded Sex or Gender Type](http://hl7.org.au/fhir/4.2.2-ballot/ValueSet-rsg-type.html) ([extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)). Person Recorded Sex Or Gender source document [AU Recorded Sex or Gender (RSG) Source Document Type](http://hl7.org.au/fhir/4.2.2-ballot/ValueSet-rsg-source-document-type.html) ([extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)). Person Recorded Sex Or Gender jurisdiction [Jurisdiction ValueSet - AU Extended](http://hl7.org.au/fhir/4.2.2-ballot/ValueSet-au-jurisdiction-extended.html) ([extensible](http://hl7.org/fhir/R4/terminologies.html#extensible)).</t>
+  </si>
+  <si>
+    <t>inv-pat-3
+inv-pat-4inv-pat-5</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -810,12 +817,12 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-au-core-pat-02
+    <t xml:space="preserve">au-core-pat-02
 </t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-au-core-pat-04:At least text, family name, or given name shall be present {text.exists() or family.exists() or given.exists()}</t>
+au-core-pat-04:At least text, family name, or given name shall be present, or if neither is available, the Data Absent Reason extension shall be present {(text.exists() or family.exists() or given.exists()) xor extension('http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
   </si>
   <si>
     <t>name</t>
@@ -1141,13 +1148,13 @@
 </t>
   </si>
   <si>
-    <t>Date accuracy indicator</t>
+    <t>Birth date accuracy indicator</t>
   </si>
   <si>
     <t>General date accuracy indicator coding.</t>
   </si>
   <si>
-    <t>In some circumstances, systems may capture date or dateTime data that has unknown or estimated parts. This coding indicates the accuracy of the day, month and year parts. This concept is equivalent to Australian Institute of Health and Welfare data element 294418 [Date—accuracy indicator](https://meteor.aihw.gov.au/content/index.phtml/itemId/294418).</t>
+    <t>In some circumstances, systems may only have date or datetime data that has unknown or estimated parts.  This coding establishes the accuracy of the day, month and year parts.</t>
   </si>
   <si>
     <t>Patient.birthDate.extension:birthTime</t>
@@ -1160,14 +1167,10 @@
 </t>
   </si>
   <si>
-    <t>Time of day of birth</t>
-  </si>
-  <si>
-    <t>The time of day that the Patient was born. This includes the date to ensure that the timezone information can be communicated effectively.</t>
-  </si>
-  <si>
-    <t>ele-1
-inv-pat-0</t>
+    <t>Birth time</t>
+  </si>
+  <si>
+    <t>The time of day that the patient was born. This includes the date to ensure that the timezone information can be communicated effectively.</t>
   </si>
   <si>
     <t>Patient.birthDate.value</t>
@@ -1258,9 +1261,6 @@
   </si>
   <si>
     <t>Deceased date accuracy indicator</t>
-  </si>
-  <si>
-    <t>In some circumstances, systems may only have date or datetime data that has unknown or estimated parts.  This coding establishes the accuracy of the day, month and year parts.</t>
   </si>
   <si>
     <t>Patient.deceased[x]:deceasedDateTime.value</t>
@@ -3190,7 +3190,7 @@
         <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>80</v>
@@ -3265,7 +3265,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -3288,13 +3288,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
@@ -3316,16 +3316,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3384,7 +3384,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -3503,7 +3503,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>139</v>
@@ -3622,7 +3622,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>139</v>
@@ -3739,7 +3739,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>139</v>
@@ -3781,7 +3781,7 @@
         <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
@@ -3858,7 +3858,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>139</v>
@@ -3977,7 +3977,7 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>139</v>
@@ -4274,7 +4274,9 @@
       <c r="M19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4332,7 +4334,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>139</v>
@@ -4355,14 +4357,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4384,16 +4386,16 @@
         <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4442,7 +4444,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4474,10 +4476,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4500,17 +4502,17 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4547,7 +4549,7 @@
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
@@ -4557,7 +4559,7 @@
         <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4566,13 +4568,13 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -4581,7 +4583,7 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4589,13 +4591,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>80</v>
@@ -4617,17 +4619,17 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4676,7 +4678,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4685,13 +4687,13 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -4700,7 +4702,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4708,13 +4710,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>80</v>
@@ -4736,17 +4738,17 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4795,7 +4797,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4804,13 +4806,13 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -4819,7 +4821,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4827,13 +4829,13 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>80</v>
@@ -4855,17 +4857,17 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4914,7 +4916,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4923,13 +4925,13 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4938,7 +4940,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4946,10 +4948,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4972,70 +4974,70 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="P25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5050,13 +5052,13 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5067,10 +5069,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5093,19 +5095,19 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5154,7 +5156,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5163,22 +5165,22 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5186,10 +5188,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5212,13 +5214,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5269,7 +5271,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5284,7 +5286,7 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5301,14 +5303,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5330,13 +5332,13 @@
         <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5377,7 +5379,7 @@
         <v>136</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
@@ -5386,7 +5388,7 @@
         <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5401,7 +5403,7 @@
         <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5418,10 +5420,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5447,16 +5449,16 @@
         <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5481,13 +5483,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5505,7 +5507,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5520,7 +5522,7 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5529,7 +5531,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5537,10 +5539,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5554,7 +5556,7 @@
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5563,19 +5565,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5624,7 +5626,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5639,7 +5641,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5648,7 +5650,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5656,14 +5658,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5673,7 +5675,7 @@
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5682,16 +5684,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5741,7 +5743,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5756,7 +5758,7 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -5765,7 +5767,7 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5773,14 +5775,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5790,7 +5792,7 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -5799,16 +5801,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5858,7 +5860,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5873,7 +5875,7 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -5882,7 +5884,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5890,10 +5892,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5916,13 +5918,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5973,7 +5975,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5988,7 +5990,7 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5997,7 +5999,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6005,10 +6007,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6031,13 +6033,13 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6088,7 +6090,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6103,7 +6105,7 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -6112,7 +6114,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6120,10 +6122,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6146,17 +6148,17 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6205,7 +6207,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6220,7 +6222,7 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6229,7 +6231,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6237,10 +6239,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6263,19 +6265,19 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6324,7 +6326,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6339,16 +6341,16 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6356,10 +6358,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6385,16 +6387,16 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6419,13 +6421,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6443,7 +6445,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6458,16 +6460,16 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6475,10 +6477,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6501,19 +6503,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6562,7 +6564,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6571,33 +6573,33 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6620,13 +6622,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6677,7 +6679,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6709,10 +6711,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6790,7 +6792,7 @@
         <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6822,13 +6824,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
@@ -6841,7 +6843,7 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>80</v>
@@ -6850,16 +6852,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6909,7 +6911,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6918,7 +6920,7 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>139</v>
@@ -6941,13 +6943,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
@@ -6960,7 +6962,7 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
@@ -6969,13 +6971,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7026,7 +7028,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7035,7 +7037,7 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>139</v>
@@ -7058,10 +7060,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7084,13 +7086,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7141,7 +7143,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7173,10 +7175,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7199,19 +7201,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7248,17 +7250,17 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7273,16 +7275,16 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7290,13 +7292,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>80</v>
@@ -7318,19 +7320,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7379,7 +7381,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7394,16 +7396,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7411,13 +7413,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
@@ -7439,19 +7441,19 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7500,7 +7502,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7515,16 +7517,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7532,10 +7534,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7558,13 +7560,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7615,7 +7617,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7647,10 +7649,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7728,7 +7730,7 @@
         <v>137</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7760,13 +7762,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="B49" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="C49" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>80</v>
@@ -7788,16 +7790,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7847,7 +7849,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7856,7 +7858,7 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>139</v>
@@ -7905,13 +7907,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8090,7 +8092,7 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>406</v>
@@ -8335,7 +8337,7 @@
         <v>426</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8454,7 +8456,7 @@
         <v>434</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8573,7 +8575,7 @@
         <v>443</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8613,13 +8615,13 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8670,7 +8672,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8685,7 +8687,7 @@
         <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8709,7 +8711,7 @@
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8731,13 +8733,13 @@
         <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8787,7 +8789,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8802,7 +8804,7 @@
         <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -8854,10 +8856,10 @@
         <v>449</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9039,7 +9041,7 @@
         <v>456</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -9079,7 +9081,7 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>459</v>
@@ -9153,10 +9155,10 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9196,7 +9198,7 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>464</v>
@@ -9208,7 +9210,7 @@
         <v>466</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9272,10 +9274,10 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9385,7 +9387,7 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>100</v>
@@ -9437,7 +9439,7 @@
         <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>474</v>
@@ -9469,13 +9471,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9508,10 +9510,10 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9628,7 +9630,7 @@
         <v>483</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9668,7 +9670,7 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>486</v>
@@ -9743,7 +9745,7 @@
         <v>488</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9902,13 +9904,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9959,7 +9961,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9974,7 +9976,7 @@
         <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -9998,7 +10000,7 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10020,13 +10022,13 @@
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10076,7 +10078,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10091,7 +10093,7 @@
         <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -10143,10 +10145,10 @@
         <v>449</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10370,7 +10372,7 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>509</v>
@@ -10566,7 +10568,7 @@
         <v>522</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10804,7 +10806,7 @@
         <v>535</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10844,13 +10846,13 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10901,7 +10903,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10916,7 +10918,7 @@
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -10940,7 +10942,7 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10962,13 +10964,13 @@
         <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11018,7 +11020,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11033,7 +11035,7 @@
         <v>139</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -11085,10 +11087,10 @@
         <v>449</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11272,7 +11274,7 @@
         <v>544</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11345,7 +11347,7 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Y79" t="s" s="2">
         <v>548</v>
@@ -11387,7 +11389,7 @@
         <v>550</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-ARFPatient.xlsx
+++ b/StructureDefinition-ARFPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:10:08+10:00</t>
+    <t>2024-10-28T13:52:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
